--- a/medicine/Psychotrope/Le_Pari_(film,_1997)/Le_Pari_(film,_1997).xlsx
+++ b/medicine/Psychotrope/Le_Pari_(film,_1997)/Le_Pari_(film,_1997).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Pari est un film français réalisé par Didier Bourdon et Bernard Campan, sorti en 1997.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis détaillé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Murielle et Victoria sont deux sœurs que tout oppose. Murielle vit à l'ouest de Paris avec Didier, un pharmacien. Ils sont parents adoptifs d'une petite fille d'origine africaine, Élodie, et mènent une existence très bourgeoise. Victoria, quant à elle, vit dans une ZUP à l'est de Paris avec Bernard, un professeur de technologie dans un lycée de banlieue. Les deux beaux-frères se détestent mais ont en commun d'être de grands fumeurs.
 Alors que la famille est réunie à l'occasion de l'anniversaire du père de Murielle et Victoria, Didier et Bernard, harcelés indirectement par les discours moralisateurs de leur belle-mère et de leurs épouses respectives, font le pari d'arrêter de fumer pendant quinze jours.
@@ -555,7 +569,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Le Pari
 Réalisation : Didier Bourdon, Bernard Campan
@@ -599,7 +615,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Didier Bourdon : Didier, le pharmacien
@@ -649,7 +667,7 @@
 Jean-Pierre Tagliaferri
 Bonnafet Tarbouriech : un collègue de Bernard
 Jean-Roger Milo : le policier
-Pascal Légitimus (caméo)[1]
+Pascal Légitimus (caméo)
 </t>
         </is>
       </c>
@@ -680,10 +698,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Choix des interprètes
-Le trio Les Inconnus étant, au moment du film, toujours dans l’impossibilité contractuelle de se produire ensemble, Pascal Légitimus ne fait pas partie de la distribution. On le voit par contre brièvement comme figurant lors du cocktail de Télé Zap.  Son père Théo Légitimus joue quant à lui le rôle d’un client de la pharmacie de Didier.
-Tournage
-Le tournage s'est déroulé à Montreuil (comme au début du film, dans le quartier de la Croix-de-chavaux et au collège Lenain de-Tillemont) et à Paris. La scène des obsèques de M. Ramirez a été tourné au cimetière des Bulvis à Rueil-Malmaison.
+          <t>Choix des interprètes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le trio Les Inconnus étant, au moment du film, toujours dans l’impossibilité contractuelle de se produire ensemble, Pascal Légitimus ne fait pas partie de la distribution. On le voit par contre brièvement comme figurant lors du cocktail de Télé Zap.  Son père Théo Légitimus joue quant à lui le rôle d’un client de la pharmacie de Didier.
 </t>
         </is>
       </c>
@@ -709,12 +730,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Éditions vidéo</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Le DVD du film sort le 3 janvier 2008 chez Pathé. Le Blu-ray du film sort le 5 février 2014, toujours chez Pathé.[réf. souhaitée]</t>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage s'est déroulé à Montreuil (comme au début du film, dans le quartier de la Croix-de-chavaux et au collège Lenain de-Tillemont) et à Paris. La scène des obsèques de M. Ramirez a été tourné au cimetière des Bulvis à Rueil-Malmaison.
+</t>
         </is>
       </c>
     </row>
@@ -739,10 +767,44 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Éditions vidéo</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le DVD du film sort le 3 janvier 2008 chez Pathé. Le Blu-ray du film sort le 5 février 2014, toujours chez Pathé.[réf. souhaitée]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Le_Pari_(film,_1997)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Pari_(film,_1997)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Le logotype de Télé Zap, journal pour lequel Victoria travaille, s'inspire directement de celui de Télé Z.</t>
         </is>
